--- a/duodyne.io.port.map.xlsx
+++ b/duodyne.io.port.map.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018C500A-3837-40EB-8470-1DE429FFBD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +13,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="291">
   <si>
     <t>Board</t>
   </si>
@@ -430,16 +432,475 @@
   </si>
   <si>
     <t>* Z80 and 65C816 Processor board share IO ports. They have mutually exclusive, local IO (Mapper &amp; UART) accessible only to the CPU</t>
+  </si>
+  <si>
+    <t>PORT</t>
+  </si>
+  <si>
+    <t>BOARD</t>
+  </si>
+  <si>
+    <t>FUNCTION</t>
+  </si>
+  <si>
+    <t>BITS</t>
+  </si>
+  <si>
+    <t>ROMRAM</t>
+  </si>
+  <si>
+    <t>SPEAKER</t>
+  </si>
+  <si>
+    <t>RTC Reset</t>
+  </si>
+  <si>
+    <t>RTC Write EN</t>
+  </si>
+  <si>
+    <t>LED 0</t>
+  </si>
+  <si>
+    <t>LED 1</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>RTC DATA Bit IN</t>
+  </si>
+  <si>
+    <t>RTC Data Bit OUT</t>
+  </si>
+  <si>
+    <t>RTC Clock OUT</t>
+  </si>
+  <si>
+    <t>MEM ENABLE RD</t>
+  </si>
+  <si>
+    <t>MEM ENABLE WR</t>
+  </si>
+  <si>
+    <t>USER BUTTON</t>
+  </si>
+  <si>
+    <t>…._...X</t>
+  </si>
+  <si>
+    <t>…._..X.</t>
+  </si>
+  <si>
+    <t>…._.X..</t>
+  </si>
+  <si>
+    <t>…._X…</t>
+  </si>
+  <si>
+    <t>…X_....</t>
+  </si>
+  <si>
+    <t>..X._....</t>
+  </si>
+  <si>
+    <t>.X..._....</t>
+  </si>
+  <si>
+    <t>X…_....</t>
+  </si>
+  <si>
+    <t>MULTI IO</t>
+  </si>
+  <si>
+    <t>$7A</t>
+  </si>
+  <si>
+    <t>$7B</t>
+  </si>
+  <si>
+    <t>$7C</t>
+  </si>
+  <si>
+    <t>$7D</t>
+  </si>
+  <si>
+    <t>$7E</t>
+  </si>
+  <si>
+    <t>RD/WR</t>
+  </si>
+  <si>
+    <t>XXXX_XXXX</t>
+  </si>
+  <si>
+    <t>Interrupt ID</t>
+  </si>
+  <si>
+    <t>FIFO Control</t>
+  </si>
+  <si>
+    <t>Modem Control</t>
+  </si>
+  <si>
+    <t>Line Status</t>
+  </si>
+  <si>
+    <t>Modem Status</t>
+  </si>
+  <si>
+    <t>Line Control</t>
+  </si>
+  <si>
+    <t>Channel 0 Data/Divisor Latch LSB</t>
+  </si>
+  <si>
+    <t>Interrupt Enable/Divisor Latch MSB</t>
+  </si>
+  <si>
+    <t>Scratchpad</t>
+  </si>
+  <si>
+    <t>Channel 0 Interrupt Enable/Divisor Latch MSB</t>
+  </si>
+  <si>
+    <t>Channel 0 Interrupt ID</t>
+  </si>
+  <si>
+    <t>Channel 0 FIFO Control</t>
+  </si>
+  <si>
+    <t>Channel 0 Line Control</t>
+  </si>
+  <si>
+    <t>Channel 0 Modem Control</t>
+  </si>
+  <si>
+    <t>Channel 0 Line Status</t>
+  </si>
+  <si>
+    <t>Channel 0 Modem Status</t>
+  </si>
+  <si>
+    <t>Channel 0 Scratchpad</t>
+  </si>
+  <si>
+    <t>Channel 1 Data/Divisor Latch LSB</t>
+  </si>
+  <si>
+    <t>Channel 1 Interrupt Enable/Divisor Latch MSB</t>
+  </si>
+  <si>
+    <t>Channel 1 Interrupt ID</t>
+  </si>
+  <si>
+    <t>Channel 1 FIFO Control</t>
+  </si>
+  <si>
+    <t>Channel 1 Line Control</t>
+  </si>
+  <si>
+    <t>Channel 1 Modem Control</t>
+  </si>
+  <si>
+    <t>Channel 1 Line Status</t>
+  </si>
+  <si>
+    <t>Channel 1 Modem Status</t>
+  </si>
+  <si>
+    <t>Channel 1 Scratchpad</t>
+  </si>
+  <si>
+    <t>$4A</t>
+  </si>
+  <si>
+    <t>Parallel Port Data in/out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel Port In </t>
+  </si>
+  <si>
+    <t>…._.XXX</t>
+  </si>
+  <si>
+    <t>Parallel Port In ERROR</t>
+  </si>
+  <si>
+    <t>Parallel Port In SELECT</t>
+  </si>
+  <si>
+    <t>Parallel Port In PAPER OUT</t>
+  </si>
+  <si>
+    <t>Parallel Port In ACK</t>
+  </si>
+  <si>
+    <t>Parallel Port In !BUSY</t>
+  </si>
+  <si>
+    <t>Parallel Port In STROBE</t>
+  </si>
+  <si>
+    <t>Parallel Port In LINEFEED</t>
+  </si>
+  <si>
+    <t>Parallel Port In RESET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel Port In SEL </t>
+  </si>
+  <si>
+    <t>Parallel Port In INT</t>
+  </si>
+  <si>
+    <t>Parallel Port In PDENBL</t>
+  </si>
+  <si>
+    <t>Parallel Port In STATUS 0 LED</t>
+  </si>
+  <si>
+    <t>Parallel Port In STATUS 1 LED</t>
+  </si>
+  <si>
+    <t>KBD/Mouse</t>
+  </si>
+  <si>
+    <t>KEYBOARD MOUSE Data Register</t>
+  </si>
+  <si>
+    <t>KEYBOARD MOUSE Command Register</t>
+  </si>
+  <si>
+    <t>KEYBOARD MOUSE Status Register</t>
+  </si>
+  <si>
+    <t>USB/SD Command</t>
+  </si>
+  <si>
+    <t>USB/SD Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB/SD Data </t>
+  </si>
+  <si>
+    <t>USB/SD (CH376)</t>
+  </si>
+  <si>
+    <t>DISK IO</t>
+  </si>
+  <si>
+    <t>$8A</t>
+  </si>
+  <si>
+    <t>$8D</t>
+  </si>
+  <si>
+    <t>read Main Status Register</t>
+  </si>
+  <si>
+    <t>read/write Data In/Out</t>
+  </si>
+  <si>
+    <t>read/write Terminal Count</t>
+  </si>
+  <si>
+    <t>read/write User Reset FDC</t>
+  </si>
+  <si>
+    <t>write Load Control Register</t>
+  </si>
+  <si>
+    <t>read DMA Acknowledge and Terminal Count</t>
+  </si>
+  <si>
+    <t>read DMA Acknowledge</t>
+  </si>
+  <si>
+    <t>write Load Operations Register</t>
+  </si>
+  <si>
+    <t>IDE LO</t>
+  </si>
+  <si>
+    <t>IDE HI</t>
+  </si>
+  <si>
+    <t>IDE CONTROL BITS</t>
+  </si>
+  <si>
+    <t>IDE PPI CONTROL</t>
+  </si>
+  <si>
+    <t>SPI (NET/SD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI DATA </t>
+  </si>
+  <si>
+    <t>Control Register/Enable Wiznet</t>
+  </si>
+  <si>
+    <t>Control Register/Enable NVRAM</t>
+  </si>
+  <si>
+    <t>Control Register/Enable SD</t>
+  </si>
+  <si>
+    <t>Control Register/Reset Wiz</t>
+  </si>
+  <si>
+    <t>$BA</t>
+  </si>
+  <si>
+    <t>$BB</t>
+  </si>
+  <si>
+    <t>$BE</t>
+  </si>
+  <si>
+    <t>VOICE IO</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>SN76489 #1</t>
+  </si>
+  <si>
+    <t>SN76489 #2</t>
+  </si>
+  <si>
+    <t>SPO256</t>
+  </si>
+  <si>
+    <t>SN76489</t>
+  </si>
+  <si>
+    <t>$A1</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <t>VDP Data RW</t>
+  </si>
+  <si>
+    <t>VDP Command</t>
+  </si>
+  <si>
+    <t>VDP Status</t>
+  </si>
+  <si>
+    <t>PSG SEL</t>
+  </si>
+  <si>
+    <t>PSG DATA</t>
+  </si>
+  <si>
+    <t>ACR RESET VDP</t>
+  </si>
+  <si>
+    <t>ACR VDP LED</t>
+  </si>
+  <si>
+    <t>ACR PSG LED</t>
+  </si>
+  <si>
+    <t>ACR RESET PSG</t>
+  </si>
+  <si>
+    <t>ACR BIT OUT</t>
+  </si>
+  <si>
+    <t>…X_.…</t>
+  </si>
+  <si>
+    <t>..X._.…</t>
+  </si>
+  <si>
+    <t>TMS9918</t>
+  </si>
+  <si>
+    <t>AY8919</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>ESP0 IO</t>
+  </si>
+  <si>
+    <t>ESP1 IO</t>
+  </si>
+  <si>
+    <t>ESP STATUS 0 READY OUTPUT</t>
+  </si>
+  <si>
+    <t>ESP STATUS 0 BUSY</t>
+  </si>
+  <si>
+    <t>ESP STATUS 1 READY OUTPUT</t>
+  </si>
+  <si>
+    <t>ESP STATUS 1 BUSY</t>
+  </si>
+  <si>
+    <t>$A9</t>
+  </si>
+  <si>
+    <t>$AA</t>
+  </si>
+  <si>
+    <t>$AB</t>
+  </si>
+  <si>
+    <t>$AC</t>
+  </si>
+  <si>
+    <t>$AD</t>
+  </si>
+  <si>
+    <t>$AE</t>
+  </si>
+  <si>
+    <t>SelfHost</t>
+  </si>
+  <si>
+    <t>Data/Divisor Latch LSB</t>
+  </si>
+  <si>
+    <t>Cubix Support</t>
+  </si>
+  <si>
+    <t>DOS/65 Support</t>
+  </si>
+  <si>
+    <t>Unix Support</t>
+  </si>
+  <si>
+    <t>MDEX Support</t>
+  </si>
+  <si>
+    <t>DOS Support</t>
+  </si>
+  <si>
+    <t>DUODYNE NEEDS A TAPE DRIVE :)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,8 +908,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,8 +1003,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -542,11 +1054,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -563,6 +1084,37 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,23 +1133,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
-  <autoFilter ref="A1:E31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+  <autoFilter ref="A1:E31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Board"/>
-    <tableColumn id="2" name="Device"/>
-    <tableColumn id="3" name="IO Begin"/>
-    <tableColumn id="4" name="IO End"/>
-    <tableColumn id="5" name="Note"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Board"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Device"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="IO Begin"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="IO End"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Note"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -635,9 +1187,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -672,7 +1224,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -707,7 +1259,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -880,13 +1432,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -1653,19 +2205,2246 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:XFD100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="19"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="26" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="17" style="30" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="32" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="21">
+        <v>94</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="21">
+        <v>94</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="21">
+        <v>94</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="21">
+        <v>94</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="21">
+        <v>94</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="32"/>
+    </row>
+    <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="21">
+        <v>94</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="32"/>
+    </row>
+    <row r="8" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="21">
+        <v>94</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="32"/>
+    </row>
+    <row r="9" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="21">
+        <v>94</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="32"/>
+    </row>
+    <row r="10" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="21">
+        <v>94</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="32"/>
+    </row>
+    <row r="11" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="21">
+        <v>94</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="21">
+        <v>94</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="18">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="18">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="18">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="18">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="18">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="18">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="18">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="18">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="18">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="18">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="18">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="18">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="18">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="18">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" t="s">
+        <v>202</v>
+      </c>
+      <c r="F33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="18">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="18">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="18">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="18">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" t="s">
+        <v>206</v>
+      </c>
+      <c r="F37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" t="s">
+        <v>209</v>
+      </c>
+      <c r="F40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" t="s">
+        <v>210</v>
+      </c>
+      <c r="F41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" t="s">
+        <v>214</v>
+      </c>
+      <c r="F45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" t="s">
+        <v>216</v>
+      </c>
+      <c r="F46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>215</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" t="s">
+        <v>217</v>
+      </c>
+      <c r="F47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>215</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" t="s">
+        <v>218</v>
+      </c>
+      <c r="F48" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>222</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>222</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" t="s">
+        <v>219</v>
+      </c>
+      <c r="F50" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>222</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" t="s">
+        <v>220</v>
+      </c>
+      <c r="F51" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="21">
+        <v>80</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G52" s="24"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="32"/>
+    </row>
+    <row r="53" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="21">
+        <v>81</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G53" s="24"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="32"/>
+    </row>
+    <row r="54" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="21">
+        <v>82</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G54" s="24"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="32"/>
+    </row>
+    <row r="55" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="21">
+        <v>83</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G55" s="24"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="32"/>
+    </row>
+    <row r="56" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="21">
+        <v>85</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G56" s="24"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="32"/>
+    </row>
+    <row r="57" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="21">
+        <v>86</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G57" s="24"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="32"/>
+    </row>
+    <row r="58" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="21">
+        <v>86</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G58" s="24"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="32"/>
+    </row>
+    <row r="59" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="21">
+        <v>87</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G59" s="24"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="32"/>
+    </row>
+    <row r="60" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="21">
+        <v>88</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G60" s="24"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="32"/>
+    </row>
+    <row r="61" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="21">
+        <v>89</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G61" s="24"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="32"/>
+    </row>
+    <row r="62" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G62" s="24"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="32"/>
+    </row>
+    <row r="63" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G63" s="24"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="32"/>
+    </row>
+    <row r="64" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G64" s="24"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="32"/>
+    </row>
+    <row r="65" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" s="24"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="32"/>
+    </row>
+    <row r="66" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G66" s="24"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="32"/>
+    </row>
+    <row r="67" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G67" s="24"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="32"/>
+    </row>
+    <row r="68" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G68" s="24"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="32"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>252</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" t="s">
+        <v>247</v>
+      </c>
+      <c r="E69" t="s">
+        <v>62</v>
+      </c>
+      <c r="F69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>248</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C70" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" t="s">
+        <v>247</v>
+      </c>
+      <c r="E70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F70" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>249</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" t="s">
+        <v>247</v>
+      </c>
+      <c r="E71" t="s">
+        <v>249</v>
+      </c>
+      <c r="F71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>253</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C72" t="s">
+        <v>148</v>
+      </c>
+      <c r="D72" t="s">
+        <v>247</v>
+      </c>
+      <c r="E72" t="s">
+        <v>250</v>
+      </c>
+      <c r="F72" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>253</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" t="s">
+        <v>148</v>
+      </c>
+      <c r="D73" t="s">
+        <v>247</v>
+      </c>
+      <c r="E73" t="s">
+        <v>251</v>
+      </c>
+      <c r="F73" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G74" s="24"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="32"/>
+    </row>
+    <row r="75" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G75" s="24"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="32"/>
+    </row>
+    <row r="76" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G76" s="24"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="32"/>
+    </row>
+    <row r="77" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G77" s="24"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="32"/>
+    </row>
+    <row r="78" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G78" s="24"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="32"/>
+    </row>
+    <row r="79" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G79" s="24"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="32"/>
+    </row>
+    <row r="80" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G80" s="24"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="32"/>
+    </row>
+    <row r="81" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G81" s="24"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="32"/>
+    </row>
+    <row r="82" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G82" s="24"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="32"/>
+    </row>
+    <row r="83" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="G83" s="24"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="32"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>270</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" t="s">
+        <v>170</v>
+      </c>
+      <c r="D84" t="s">
+        <v>116</v>
+      </c>
+      <c r="E84" t="s">
+        <v>271</v>
+      </c>
+      <c r="F84" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>270</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" t="s">
+        <v>170</v>
+      </c>
+      <c r="D85" t="s">
+        <v>116</v>
+      </c>
+      <c r="E85" t="s">
+        <v>272</v>
+      </c>
+      <c r="F85" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>270</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" t="s">
+        <v>149</v>
+      </c>
+      <c r="D86" t="s">
+        <v>116</v>
+      </c>
+      <c r="E86" t="s">
+        <v>273</v>
+      </c>
+      <c r="F86" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>270</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" t="s">
+        <v>149</v>
+      </c>
+      <c r="D87" t="s">
+        <v>116</v>
+      </c>
+      <c r="E87" t="s">
+        <v>274</v>
+      </c>
+      <c r="F87" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>270</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" t="s">
+        <v>149</v>
+      </c>
+      <c r="D88" t="s">
+        <v>116</v>
+      </c>
+      <c r="E88" t="s">
+        <v>275</v>
+      </c>
+      <c r="F88" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>270</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" t="s">
+        <v>149</v>
+      </c>
+      <c r="D89" t="s">
+        <v>116</v>
+      </c>
+      <c r="E89" t="s">
+        <v>276</v>
+      </c>
+      <c r="F89" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="F90" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G90" s="24"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="32"/>
+    </row>
+    <row r="91" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F91" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G91" s="24"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="32"/>
+    </row>
+    <row r="92" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E92" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F92" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G92" s="24"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="32"/>
+    </row>
+    <row r="93" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F93" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G93" s="24"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="32"/>
+    </row>
+    <row r="94" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F94" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G94" s="24"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="32"/>
+    </row>
+    <row r="95" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F95" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G95" s="24"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="32"/>
+    </row>
+    <row r="96" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F96" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G96" s="24"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="32"/>
+    </row>
+    <row r="97" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F97" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G97" s="24"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="32"/>
+    </row>
+    <row r="98" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F98" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G98" s="24"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="32"/>
+    </row>
+    <row r="100" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B100" s="34"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
